--- a/Rs.xlsx
+++ b/Rs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ИТМО\1 курс\Хакатон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA1E381-D55F-42D7-8FCB-B60CC70FFB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C19ACC-991D-415C-9A9A-0807B5761065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2542CDD8-4769-42A1-819E-A161A00178FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>ZnSO4</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Cu(NO3)2*3H2O</t>
   </si>
   <si>
-    <t>Fe(NO3)3⋅9H2O</t>
-  </si>
-  <si>
     <t>Co(NO3)2</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>NH4VO3</t>
   </si>
   <si>
-    <t>Ce(NO3)3·6H2O</t>
-  </si>
-  <si>
     <t>Fe3O4</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>W(C2H5O)6</t>
   </si>
   <si>
-    <t>HAuCl4</t>
-  </si>
-  <si>
     <t>Fe2O3</t>
   </si>
   <si>
@@ -117,12 +108,6 @@
     <t>Ni(OAc)2</t>
   </si>
   <si>
-    <t>Co(CH3COO)2·4H2O</t>
-  </si>
-  <si>
-    <t>HPtCl4</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -141,96 +126,15 @@
     <t>CeNO3</t>
   </si>
   <si>
-    <t>Co(NH2)2</t>
-  </si>
-  <si>
     <t>H2O2</t>
   </si>
   <si>
     <t>Glycine</t>
   </si>
   <si>
-    <t>H2O</t>
-  </si>
-  <si>
-    <t>Ethylene glycole</t>
-  </si>
-  <si>
-    <t>Isopropanol</t>
-  </si>
-  <si>
-    <t>NaBH4</t>
-  </si>
-  <si>
-    <t>Glucose solution</t>
-  </si>
-  <si>
-    <t>ODE</t>
-  </si>
-  <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
-    <t>DMSO</t>
-  </si>
-  <si>
-    <t>DMF</t>
-  </si>
-  <si>
-    <t>urea</t>
-  </si>
-  <si>
-    <t>NaAc</t>
-  </si>
-  <si>
-    <t>PEG10000</t>
-  </si>
-  <si>
-    <t>Glycerine</t>
-  </si>
-  <si>
-    <t>Fe(NO3)2*9H2O</t>
-  </si>
-  <si>
     <t>(NH4)2S2O8</t>
   </si>
   <si>
-    <t>OAc</t>
-  </si>
-  <si>
-    <t>TBAB</t>
-  </si>
-  <si>
-    <t>HNO3</t>
-  </si>
-  <si>
-    <t>Na3C6H5O7</t>
-  </si>
-  <si>
-    <t>HCl</t>
-  </si>
-  <si>
-    <t>Caffeine</t>
-  </si>
-  <si>
-    <t>N(CH3)4OH</t>
-  </si>
-  <si>
-    <t>PVP</t>
-  </si>
-  <si>
-    <t>HMTA</t>
-  </si>
-  <si>
-    <t>L-arginine</t>
-  </si>
-  <si>
-    <t>TCPP</t>
-  </si>
-  <si>
-    <t>ascorbic acid</t>
-  </si>
-  <si>
     <t>formula</t>
   </si>
   <si>
@@ -270,9 +174,6 @@
     <t>Mn(NO3)2*4H2O</t>
   </si>
   <si>
-    <t>Na2MoO4·7H2O</t>
-  </si>
-  <si>
     <t>Ce(NO3)3</t>
   </si>
   <si>
@@ -282,9 +183,6 @@
     <t>(NO3)3*6H2O</t>
   </si>
   <si>
-    <t>Na2WO4·2H2O</t>
-  </si>
-  <si>
     <t>Ce(NO3)3*6H2O</t>
   </si>
   <si>
@@ -300,14 +198,239 @@
     <t>CH3ONa</t>
   </si>
   <si>
-    <t>NH4Ac</t>
+    <t>HAuCl4*3H2O</t>
+  </si>
+  <si>
+    <t>Co(CH3COO)2*4H2O</t>
+  </si>
+  <si>
+    <t>Cu(CH3COO)2</t>
+  </si>
+  <si>
+    <t>MnAc2</t>
+  </si>
+  <si>
+    <t>(VO)SO4</t>
+  </si>
+  <si>
+    <t>VCl3</t>
+  </si>
+  <si>
+    <t>C10H14O5V</t>
+  </si>
+  <si>
+    <t>FeCl4*4H2O</t>
+  </si>
+  <si>
+    <t>CuCl2*2H2O</t>
+  </si>
+  <si>
+    <t>RuCl3*3H2O</t>
+  </si>
+  <si>
+    <t>Tb(NO3)3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H2PtCl6*6H2O</t>
+  </si>
+  <si>
+    <t>Ti{OCH(CH3)2}4</t>
+  </si>
+  <si>
+    <t>MoS2</t>
+  </si>
+  <si>
+    <t>Mn(NO3)2</t>
+  </si>
+  <si>
+    <t>Ca(NO3)2</t>
+  </si>
+  <si>
+    <t>La(NO3)3</t>
+  </si>
+  <si>
+    <t>NiCl2*6H2O</t>
+  </si>
+  <si>
+    <t>VOSO4</t>
+  </si>
+  <si>
+    <t>NiCl3*6H2O</t>
+  </si>
+  <si>
+    <t>Со(CH3COO)2</t>
+  </si>
+  <si>
+    <t>Na2MoO4*2H2O</t>
+  </si>
+  <si>
+    <t>MnCl2*4H2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NiCl2*6H2O </t>
+  </si>
+  <si>
+    <t>ZnNO3*6H2O</t>
+  </si>
+  <si>
+    <t>VOSO4*nH2O</t>
+  </si>
+  <si>
+    <t>H2PtCl6*6H2O</t>
+  </si>
+  <si>
+    <t>K2PtCl6</t>
+  </si>
+  <si>
+    <t>Mn(CH3COO)2*4H2O</t>
+  </si>
+  <si>
+    <t>Ni(NO3)2*6H2O</t>
+  </si>
+  <si>
+    <t>Ni(CH3COO)2*4H2O</t>
+  </si>
+  <si>
+    <t>Bi(NO3)3*5H2O</t>
+  </si>
+  <si>
+    <t>CoCl2 *6H2O</t>
+  </si>
+  <si>
+    <t>NiCo2O4</t>
+  </si>
+  <si>
+    <t>MnSO4*H2O</t>
+  </si>
+  <si>
+    <t>La(NO3)3*6H2O</t>
+  </si>
+  <si>
+    <t>RhCl3*3H2O</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>H2AuCl4</t>
+  </si>
+  <si>
+    <t>Na2PtCl6*6H2O</t>
+  </si>
+  <si>
+    <t>H2PtCl6</t>
+  </si>
+  <si>
+    <t>Co(C5H7O2)2</t>
+  </si>
+  <si>
+    <t>Mn(C5H7O2)2</t>
+  </si>
+  <si>
+    <t>Cd(NO3)2*4H2O</t>
+  </si>
+  <si>
+    <t>Zn(NO3)2*6H2O</t>
+  </si>
+  <si>
+    <t>RhCl3*3H20</t>
+  </si>
+  <si>
+    <t>Na2MoO4*7H2O</t>
+  </si>
+  <si>
+    <t>CH3COONH4</t>
+  </si>
+  <si>
+    <t>C2H4O2</t>
+  </si>
+  <si>
+    <t>CO(NH2)2</t>
+  </si>
+  <si>
+    <t>KBrO3</t>
+  </si>
+  <si>
+    <t>MgCl2*6H2O</t>
+  </si>
+  <si>
+    <t>FeSO4</t>
+  </si>
+  <si>
+    <t>MgFe2O4</t>
+  </si>
+  <si>
+    <t>SiC8H20O4</t>
+  </si>
+  <si>
+    <t>TiO2</t>
+  </si>
+  <si>
+    <t>CuSO4*5H2O</t>
+  </si>
+  <si>
+    <t>(NH4)6Mo7O24*4H2O</t>
+  </si>
+  <si>
+    <t>KMnO4</t>
+  </si>
+  <si>
+    <t>CS(NH2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KBrO3 </t>
+  </si>
+  <si>
+    <t>SeO2</t>
+  </si>
+  <si>
+    <t>CH3COONa</t>
+  </si>
+  <si>
+    <t>K3[Co(CN)6]</t>
+  </si>
+  <si>
+    <t>Na2S</t>
+  </si>
+  <si>
+    <t>InCl3</t>
+  </si>
+  <si>
+    <t>C8H15BrN2</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>CN2H4S</t>
+  </si>
+  <si>
+    <t>Fe2(SO4)3*5H2O</t>
+  </si>
+  <si>
+    <t>Co(NO3)3*6H2O</t>
+  </si>
+  <si>
+    <t>BH3</t>
+  </si>
+  <si>
+    <t>H2PtCl4*6H2O</t>
+  </si>
+  <si>
+    <t>K2PtCl4</t>
+  </si>
+  <si>
+    <t>CuCl2</t>
+  </si>
+  <si>
+    <t>Fe(C5H7O2)3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,30 +446,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF4D5156"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -354,6 +456,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
     </font>
   </fonts>
   <fills count="3">
@@ -382,16 +490,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -709,7 +812,7 @@
   <dimension ref="A1:J166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,39 +824,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -793,13 +896,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C67" si="0">DEC2BIN(B3,7)</f>
+        <f t="shared" ref="C3:C66" si="0">DEC2BIN(B3,7)</f>
         <v>0000010</v>
       </c>
       <c r="D3" t="str">
@@ -827,13 +930,13 @@
         <v>1</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J67" si="7">MID($C3,7,1)</f>
+        <f t="shared" ref="J3:J66" si="7">MID($C3,7,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -873,7 +976,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -913,7 +1016,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -953,7 +1056,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -993,7 +1096,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1033,7 +1136,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1073,7 +1176,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1113,7 +1216,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1153,7 +1256,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1193,7 +1296,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1233,7 +1336,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1273,7 +1376,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1313,7 +1416,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1353,7 +1456,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1393,7 +1496,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -1433,7 +1536,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -1473,7 +1576,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -1512,8 +1615,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
+      <c r="A21" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -1553,7 +1656,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -1593,7 +1696,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -1633,7 +1736,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -1673,7 +1776,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -1713,7 +1816,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -1752,8 +1855,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
+      <c r="A27" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -1793,7 +1896,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -1833,7 +1936,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -1873,7 +1976,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -1912,8 +2015,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>75</v>
+      <c r="A31" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -1953,7 +2056,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -1993,7 +2096,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -2033,7 +2136,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -2073,7 +2176,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -2113,7 +2216,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -2152,8 +2255,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>29</v>
+      <c r="A37" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -2193,7 +2296,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -2233,7 +2336,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -2273,7 +2376,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -2313,7 +2416,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -2353,7 +2456,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -2393,7 +2496,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -2433,7 +2536,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -2473,7 +2576,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -2513,7 +2616,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -2552,8 +2655,8 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>30</v>
+      <c r="A47" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -2592,8 +2695,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>31</v>
+      <c r="A48" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -2632,8 +2735,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>32</v>
+      <c r="A49" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -2672,8 +2775,8 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>33</v>
+      <c r="A50" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -2713,7 +2816,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -2752,8 +2855,8 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>35</v>
+      <c r="A52" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -2793,7 +2896,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -2833,7 +2936,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -2873,7 +2976,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -2913,7 +3016,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -2953,7 +3056,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -2993,7 +3096,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -3033,7 +3136,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -3073,7 +3176,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -3113,7 +3216,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -3152,8 +3255,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>45</v>
+      <c r="A62" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -3193,7 +3296,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="B63">
         <v>62</v>
@@ -3233,7 +3336,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B64">
         <v>63</v>
@@ -3273,7 +3376,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B65">
         <v>64</v>
@@ -3313,7 +3416,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B66">
         <v>65</v>
@@ -3353,13 +3456,13 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B67">
         <v>66</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C67:C121" si="8">DEC2BIN(B67,7)</f>
         <v>1000010</v>
       </c>
       <c r="D67" t="str">
@@ -3387,53 +3490,53 @@
         <v>1</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J67:J130" si="9">MID($C67,7,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" ref="C68:C80" si="8">DEC2BIN(B68,7)</f>
+        <f t="shared" si="8"/>
         <v>1000011</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" ref="D68:D80" si="9">MID($C68,1,1)</f>
+        <f t="shared" ref="D68:D131" si="10">MID($C68,1,1)</f>
         <v>1</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" ref="E68:E80" si="10">MID($C68,2,1)</f>
+        <f t="shared" ref="E68:E131" si="11">MID($C68,2,1)</f>
         <v>0</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" ref="F68:F80" si="11">MID($C68,3,1)</f>
+        <f t="shared" ref="F68:F131" si="12">MID($C68,3,1)</f>
         <v>0</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" ref="G68:G80" si="12">MID($C68,4,1)</f>
+        <f t="shared" ref="G68:G131" si="13">MID($C68,4,1)</f>
         <v>0</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" ref="H68:H80" si="13">MID($C68,5,1)</f>
+        <f t="shared" ref="H68:H131" si="14">MID($C68,5,1)</f>
         <v>0</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" ref="I68:I80" si="14">MID($C68,6,1)</f>
+        <f t="shared" ref="I68:I131" si="15">MID($C68,6,1)</f>
         <v>1</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" ref="J68:J80" si="15">MID($C68,7,1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B69">
         <v>68</v>
@@ -3443,37 +3546,37 @@
         <v>1000100</v>
       </c>
       <c r="D69" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J69" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F69" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G69" t="str">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H69" t="str">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="I69" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J69" t="str">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B70">
         <v>69</v>
@@ -3483,37 +3586,37 @@
         <v>1000101</v>
       </c>
       <c r="D70" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J70" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F70" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G70" t="str">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="I70" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J70" t="str">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B71">
         <v>70</v>
@@ -3523,37 +3626,37 @@
         <v>1000110</v>
       </c>
       <c r="D71" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J71" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E71" t="str">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F71" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G71" t="str">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H71" t="str">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="I71" t="str">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="J71" t="str">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>56</v>
+      <c r="A72" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B72">
         <v>71</v>
@@ -3563,37 +3666,37 @@
         <v>1000111</v>
       </c>
       <c r="D72" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J72" t="str">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E72" t="str">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F72" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G72" t="str">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H72" t="str">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="I72" t="str">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="J72" t="str">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>57</v>
+      <c r="A73" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -3603,37 +3706,37 @@
         <v>1001000</v>
       </c>
       <c r="D73" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J73" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F73" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G73" t="str">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H73" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I73" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J73" t="str">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>58</v>
+      <c r="A74" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -3643,37 +3746,37 @@
         <v>1001001</v>
       </c>
       <c r="D74" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J74" t="str">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E74" t="str">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F74" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G74" t="str">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H74" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I74" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J74" t="str">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>59</v>
+      <c r="A75" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -3683,37 +3786,37 @@
         <v>1001010</v>
       </c>
       <c r="D75" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J75" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E75" t="str">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F75" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G75" t="str">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H75" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I75" t="str">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="J75" t="str">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -3723,37 +3826,37 @@
         <v>1001011</v>
       </c>
       <c r="D76" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J76" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E76" t="str">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F76" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G76" t="str">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H76" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I76" t="str">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="J76" t="str">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -3763,37 +3866,37 @@
         <v>1001100</v>
       </c>
       <c r="D77" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J77" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E77" t="str">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F77" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G77" t="str">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H77" t="str">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="I77" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J77" t="str">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -3803,37 +3906,37 @@
         <v>1001101</v>
       </c>
       <c r="D78" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J78" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E78" t="str">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F78" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G78" t="str">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H78" t="str">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="I78" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J78" t="str">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -3843,37 +3946,37 @@
         <v>1001110</v>
       </c>
       <c r="D79" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J79" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E79" t="str">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F79" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G79" t="str">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H79" t="str">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="I79" t="str">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="J79" t="str">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -3883,207 +3986,1811 @@
         <v>1001111</v>
       </c>
       <c r="D80" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J80" t="str">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E80" t="str">
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="8"/>
+        <v>1010000</v>
+      </c>
+      <c r="D81" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F80" t="str">
+        <v>1</v>
+      </c>
+      <c r="E81" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G80" t="str">
+      <c r="F81" t="str">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="H80" t="str">
+      <c r="G81" t="str">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="I80" t="str">
+        <v>0</v>
+      </c>
+      <c r="H81" t="str">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="J80" t="str">
+        <v>0</v>
+      </c>
+      <c r="I81" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="1"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="1"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="1"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="1"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="1"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="1"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="3"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="3"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="3"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="3"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="3"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="3"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="3"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="3"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="3"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="3"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="3"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="3"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="3"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="3"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="3"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="3"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="3"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="3"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="3"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="3"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="3"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="3"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="3"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="3"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="3"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="3"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="3"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="3"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="1"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="1"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="3"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="3"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="3"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="3"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="3"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="3"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="3"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="3"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="3"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="3"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="3"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="3"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="3"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="3"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="3"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="3"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="3"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="8"/>
+        <v>1010001</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="8"/>
+        <v>1010010</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="8"/>
+        <v>1010011</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="8"/>
+        <v>1010100</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="8"/>
+        <v>1010101</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="8"/>
+        <v>1010110</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="8"/>
+        <v>1010111</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="8"/>
+        <v>1011000</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="8"/>
+        <v>1011001</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="8"/>
+        <v>1011010</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="8"/>
+        <v>1011011</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="8"/>
+        <v>1011100</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="8"/>
+        <v>1011101</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="8"/>
+        <v>1011110</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="8"/>
+        <v>1011111</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="8"/>
+        <v>1100000</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="8"/>
+        <v>1100001</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="8"/>
+        <v>1100010</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="8"/>
+        <v>1100011</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="8"/>
+        <v>1100100</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="8"/>
+        <v>1100101</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="8"/>
+        <v>1100110</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J103" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="8"/>
+        <v>1100111</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="8"/>
+        <v>1101000</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H105" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J105" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="8"/>
+        <v>1101001</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H106" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J106" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="8"/>
+        <v>1101010</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J107" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="8"/>
+        <v>1101011</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J108" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="8"/>
+        <v>1101100</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H109" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J109" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="8"/>
+        <v>1101101</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J110" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="8"/>
+        <v>1101110</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J111" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="8"/>
+        <v>1101111</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H112" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J112" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="8"/>
+        <v>1110000</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F113" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J113" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="8"/>
+        <v>1110001</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F114" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I114" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J114" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="8"/>
+        <v>1110010</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F115" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I115" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J115" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="8"/>
+        <v>1110011</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I116" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J116" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="8"/>
+        <v>1110100</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F117" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J117" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="8"/>
+        <v>1110101</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F118" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J118" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="8"/>
+        <v>1110110</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F119" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J119" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="8"/>
+        <v>1110111</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F120" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="str">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J120" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="8"/>
+        <v>1111000</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F121" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I121" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J121" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="2"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>